--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -18,41 +18,12 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Emprendimiento Jean Santoyo</t>
-  </si>
-  <si>
-    <t>Urb Boyaca iv Barcelona Anzoátegui Zona postal 6001</t>
-  </si>
-  <si>
-    <t>Rif: J.3504578746-CRL</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -75,7 +46,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -83,87 +54,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,55 +79,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>565548</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="1"/>
-          <a:ext cx="1172766" cy="964406"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,85 +344,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="8" max="8" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:9" s="1" customFormat="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" s="8" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="10"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F12" s="12"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1">
+      <c r="A4" s="4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1">
+      <c r="A5" s="4"/>
+      <c r="B5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12" s="2"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="F16" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.19685039370078741" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;CEmprendimiento Jean Santoyo
+Urb Boyaca iv Barcelona Anzoátegui Zona postal 6001
+Rif: J.3504578746-CRL&amp;R&amp;D
+&amp;P</oddHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>